--- a/biology/Histoire de la zoologie et de la botanique/Paul_Pallary/Paul_Pallary.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paul_Pallary/Paul_Pallary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Maurice Pallary, né le 9 mars 1869 à Mers-el-Kébir (Algérie) et mort le 9 janvier 1942 à Oran, est un enseignant, malacologiste, arachnologiste, zoologiste, géologue, préhistorien et archéologue français.
 Paul Pallary a commencé sa carrière comme instituteur à Oran. Lors d'excursions scolaires dans l'Oranie, il commença à collecter des gastéropodes et coquillages marins et se prit de passion pour la recherche et la classification de ses découvertes zoologiques, puis préhistoriques.
@@ -512,7 +524,9 @@
           <t>Zoologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Paul Pallary entreprit des recherches de pointe sur les mollusques. Ses études furent principalement concentrées dans la partie occidentale de la mer Méditerranée et dans le Moyen-Orient. Il fut un auteur prolifique sur la malacologie. Il s'intéressa également à d'autres domaines de la zoologie, notamment aux arachnides et aux scorpions.
 Il a nommé plus de 100 espèces de mollusques et même quelques genres (Adansonia Pallary, 1902; Corbula (Physoida) Pallary, 1900; Orania Pallary, 1900)
@@ -554,7 +568,9 @@
           <t>Géologie et préhistoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Pallary s'intéressa également à la géologie et à la préhistoire de l'Afrique du Nord. Il est connu comme le "doyen de la Préhistoire de l'Afrique du Nord".
 En 1892, il a découvert, en collaboration avec le naturaliste et préhistorien François Doumergue, plusieurs sites paléolithiques et néolithiques situés dans la région de l'Oranie, notamment les grottes au Cuartel et Kouchet El Djir et des carrières d'Eckmühl, dites abri Alain. Des traces humaines estimées à 100 000 ans ont été retrouvées dans ces grottes datées du Paléolithique et du Néolithique. De nombreuses pièces archéologiques ont été récoltées. Certaines sont déposées au musée Ahmed Zabana. C'est le cas d'un bloc stratigraphique et une multitude d'outils : lissoirs, haches polies, lamelles, couteaux.
@@ -586,7 +602,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les Dolmens du Puig-Noulous Pyrénées-Orientales, éditions C. Reinwald, 1887
 Étude sur le quaternaire algérien, éditions Impr. de Pitrat aîné, 1888
